--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja5.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">56</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">4.4000000000000004</t>
@@ -32,94 +32,94 @@
     <t xml:space="preserve">4.4.1.-  RECIBIDOS</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">117</t>
   </si>
   <si>
     <t xml:space="preserve">4.4.2.-DILIGENCIADOS Y DEVUELTOS</t>
   </si>
   <si>
+    <t xml:space="preserve">4.4.3.- FORMULADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.4.-DILIGENCIADOS RECIBIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESPACHOS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.1.-RECIBIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.2.-DILIGENCIADOS Y DEVUELTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTIFICACIONES (T.S.A.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJECUCIONES DE SENTENCIAS (T.S.A.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTRAS DILIGENCIAS  (T.S.A.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTRAS DILIGENCIAS (T.S.A.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columna de Verificación de Datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J   U   I   C   I   O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.- RESOLUCIONES (DICTADAS Y FIRMADAS EN EL MES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De asuntos recibidos en :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 y Años anteriores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T O T A L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0999999999999996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENTENCIAS DEFINITIVAS;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.3.- FORMULADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.4.-DILIGENCIADOS RECIBIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESPACHOS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.1.-RECIBIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5.2.-DILIGENCIADOS Y DEVUELTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTIFICACIONES (T.S.A.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EJECUCIONES DE SENTENCIAS (T.S.A.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTRAS DILIGENCIAS  (T.S.A.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTRAS DILIGENCIAS (T.S.A.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columna de Verificación de Datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J   U   I   C   I   O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V.- RESOLUCIONES (DICTADAS Y FIRMADAS EN EL MES)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De asuntos recibidos en :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Años anteriores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T O T A L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0999999999999996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENTENCIAS DEFINITIVAS;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">OK</t>
@@ -158,12 +158,6 @@
     <t xml:space="preserve">CONVENIOS CON CARÁCTER DE SENTENCIA.</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.7000000000000002</t>
   </si>
   <si>
@@ -176,28 +170,22 @@
     <t xml:space="preserve">CADUCIDADES</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.9000000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">OTRAS(Especifique)</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">RESOLUCIONES DE JURISDICCION VOLUNTARIA</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
   </si>
   <si>
     <t xml:space="preserve">(FRACC. X, ART. 18 L.O.T.A.);</t>
@@ -206,22 +194,16 @@
     <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
   </si>
   <si>
     <t xml:space="preserve">Este Total debe de coincidir con el Gran Total de la Hoja 10</t>
   </si>
   <si>
-    <t xml:space="preserve">FEBRERO</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 5</t>
@@ -588,16 +570,17 @@
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
-      <c r="I1" t="s">
+      <c r="I1"/>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
+      <c r="O1"/>
     </row>
     <row r="2">
       <c r="A2"/>
@@ -614,6 +597,7 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
+      <c r="O2"/>
     </row>
     <row r="3">
       <c r="A3"/>
@@ -630,6 +614,7 @@
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
+      <c r="O3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -650,6 +635,7 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
+      <c r="O4"/>
     </row>
     <row r="5">
       <c r="A5"/>
@@ -666,6 +652,7 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
+      <c r="O5"/>
     </row>
     <row r="6">
       <c r="A6"/>
@@ -682,14 +669,15 @@
       </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
+      <c r="I6" s="1" t="n">
+        <v>113</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
+      <c r="O6"/>
     </row>
     <row r="7">
       <c r="A7"/>
@@ -706,30 +694,32 @@
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
+      <c r="O7"/>
     </row>
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
+      <c r="I8" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
+      <c r="O8"/>
     </row>
     <row r="9">
       <c r="A9"/>
@@ -746,6 +736,7 @@
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
+      <c r="O9"/>
     </row>
     <row r="10">
       <c r="A10"/>
@@ -762,6 +753,7 @@
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
+      <c r="O10"/>
     </row>
     <row r="11">
       <c r="A11"/>
@@ -778,13 +770,14 @@
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
+      <c r="O11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -798,6 +791,7 @@
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
+      <c r="O12"/>
     </row>
     <row r="13">
       <c r="A13"/>
@@ -814,17 +808,18 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
+      <c r="O13"/>
     </row>
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -834,6 +829,7 @@
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
+      <c r="O14"/>
     </row>
     <row r="15">
       <c r="A15"/>
@@ -850,23 +846,24 @@
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
+      <c r="O15"/>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16"/>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="1" t="n">
         <v>12</v>
       </c>
       <c r="J16"/>
@@ -874,6 +871,7 @@
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
+      <c r="O16"/>
     </row>
     <row r="17">
       <c r="A17"/>
@@ -890,30 +888,28 @@
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
+      <c r="O17"/>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18"/>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I18" s="1"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
+      <c r="O18"/>
     </row>
     <row r="19">
       <c r="A19"/>
@@ -930,30 +926,28 @@
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
+      <c r="O19"/>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I20" s="1"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
+      <c r="O20"/>
     </row>
     <row r="21">
       <c r="A21"/>
@@ -970,23 +964,24 @@
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
+      <c r="O21"/>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="n">
         <v>12</v>
       </c>
       <c r="J22"/>
@@ -994,6 +989,7 @@
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
+      <c r="O22"/>
     </row>
     <row r="23">
       <c r="A23"/>
@@ -1007,11 +1003,12 @@
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23"/>
+      <c r="L23"/>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
       <c r="N23"/>
+      <c r="O23"/>
     </row>
     <row r="24">
       <c r="A24"/>
@@ -1028,6 +1025,7 @@
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
+      <c r="O24"/>
     </row>
     <row r="25">
       <c r="A25"/>
@@ -1044,6 +1042,7 @@
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
+      <c r="O25"/>
     </row>
     <row r="26">
       <c r="A26"/>
@@ -1060,10 +1059,11 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
+      <c r="O26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -1078,6 +1078,7 @@
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
+      <c r="O27"/>
     </row>
     <row r="28">
       <c r="A28"/>
@@ -1094,6 +1095,7 @@
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
+      <c r="O28"/>
     </row>
     <row r="29">
       <c r="A29"/>
@@ -1110,6 +1112,7 @@
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
+      <c r="O29"/>
     </row>
     <row r="30">
       <c r="A30"/>
@@ -1126,10 +1129,11 @@
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
+      <c r="O30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -1144,6 +1148,7 @@
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
+      <c r="O31"/>
     </row>
     <row r="32">
       <c r="A32"/>
@@ -1153,7 +1158,7 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -1162,6 +1167,7 @@
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
+      <c r="O32"/>
     </row>
     <row r="33">
       <c r="A33"/>
@@ -1170,24 +1176,27 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
         <v>26</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>27</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J33" t="s">
         <v>28</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>29</v>
       </c>
-      <c r="J33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
+      <c r="O33"/>
     </row>
     <row r="34">
       <c r="A34"/>
@@ -1204,40 +1213,44 @@
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
+      <c r="O34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
         <v>31</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>35</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>36</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>35</v>
       </c>
-      <c r="M35"/>
-      <c r="N35" t="s">
+      <c r="N35"/>
+      <c r="O35" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1256,6 +1269,7 @@
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
+      <c r="O36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1268,28 +1282,31 @@
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="K37" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" t="s">
         <v>36</v>
       </c>
-      <c r="L37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M37"/>
+      <c r="M37" t="s">
+        <v>34</v>
+      </c>
       <c r="N37"/>
+      <c r="O37"/>
     </row>
     <row r="38">
       <c r="A38"/>
@@ -1306,6 +1323,7 @@
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
+      <c r="O38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1318,28 +1336,31 @@
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="K39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
         <v>36</v>
       </c>
-      <c r="L39" t="s">
-        <v>8</v>
-      </c>
-      <c r="M39"/>
+      <c r="M39" t="s">
+        <v>32</v>
+      </c>
       <c r="N39"/>
+      <c r="O39"/>
     </row>
     <row r="40">
       <c r="A40"/>
@@ -1356,6 +1377,7 @@
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
+      <c r="O40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1368,28 +1390,31 @@
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" t="s">
         <v>33</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>36</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>33</v>
       </c>
-      <c r="M41"/>
       <c r="N41"/>
+      <c r="O41"/>
     </row>
     <row r="42">
       <c r="A42"/>
@@ -1406,6 +1431,7 @@
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
+      <c r="O42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1418,28 +1444,31 @@
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" t="s">
         <v>36</v>
       </c>
-      <c r="L43" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43"/>
+      <c r="M43" t="s">
+        <v>32</v>
+      </c>
       <c r="N43"/>
+      <c r="O43"/>
     </row>
     <row r="44">
       <c r="A44"/>
@@ -1456,6 +1485,7 @@
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
+      <c r="O44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1468,28 +1498,31 @@
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" t="s">
         <v>36</v>
       </c>
-      <c r="L45" t="s">
-        <v>49</v>
-      </c>
-      <c r="M45"/>
+      <c r="M45" t="s">
+        <v>32</v>
+      </c>
       <c r="N45"/>
+      <c r="O45"/>
     </row>
     <row r="46">
       <c r="A46"/>
@@ -1506,40 +1539,44 @@
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
+      <c r="O46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="K47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" t="s">
         <v>36</v>
       </c>
-      <c r="L47" t="s">
-        <v>12</v>
-      </c>
-      <c r="M47"/>
+      <c r="M47" t="s">
+        <v>33</v>
+      </c>
       <c r="N47"/>
+      <c r="O47"/>
     </row>
     <row r="48">
       <c r="A48"/>
@@ -1556,40 +1593,44 @@
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
+      <c r="O48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="K49" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" t="s">
         <v>36</v>
       </c>
-      <c r="L49" t="s">
-        <v>54</v>
-      </c>
-      <c r="M49"/>
+      <c r="M49" t="s">
+        <v>32</v>
+      </c>
       <c r="N49"/>
+      <c r="O49"/>
     </row>
     <row r="50">
       <c r="A50"/>
@@ -1606,40 +1647,44 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
+      <c r="O50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" t="s">
         <v>36</v>
       </c>
-      <c r="L51" t="s">
-        <v>59</v>
-      </c>
-      <c r="M51"/>
+      <c r="M51" t="s">
+        <v>16</v>
+      </c>
       <c r="N51"/>
+      <c r="O51"/>
     </row>
     <row r="52">
       <c r="A52"/>
@@ -1656,45 +1701,49 @@
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
+      <c r="O52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" t="s">
         <v>57</v>
       </c>
-      <c r="J53" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>36</v>
       </c>
-      <c r="L53" t="s">
-        <v>61</v>
-      </c>
-      <c r="M53"/>
+      <c r="M53" t="s">
+        <v>57</v>
+      </c>
       <c r="N53"/>
+      <c r="O53"/>
     </row>
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -1708,6 +1757,7 @@
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
+      <c r="O54"/>
     </row>
     <row r="55">
       <c r="A55"/>
@@ -1724,41 +1774,45 @@
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
+      <c r="O55"/>
     </row>
     <row r="56">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10</v>
+      </c>
+      <c r="J56" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" t="s">
         <v>61</v>
       </c>
-      <c r="H56" t="s">
-        <v>65</v>
-      </c>
-      <c r="I56" t="s">
-        <v>66</v>
-      </c>
-      <c r="J56" t="s">
-        <v>67</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>36</v>
       </c>
-      <c r="L56" t="s">
-        <v>67</v>
-      </c>
       <c r="M56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N56" t="s">
         <v>36</v>
       </c>
-      <c r="N56" t="s">
-        <v>68</v>
+      <c r="O56" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="57">
@@ -1776,6 +1830,7 @@
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
+      <c r="O57"/>
     </row>
     <row r="58">
       <c r="A58"/>
@@ -1792,6 +1847,7 @@
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58"/>
+      <c r="O58"/>
     </row>
     <row r="59">
       <c r="A59"/>
@@ -1808,6 +1864,7 @@
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
+      <c r="O59"/>
     </row>
     <row r="60">
       <c r="A60"/>
@@ -1824,28 +1881,30 @@
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
+      <c r="O60"/>
     </row>
     <row r="61">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E61" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
-      <c r="J61" t="s">
-        <v>70</v>
-      </c>
-      <c r="K61"/>
+      <c r="J61"/>
+      <c r="K61" t="s">
+        <v>64</v>
+      </c>
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61"/>
+      <c r="O61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja5.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">H01_01</t>
   </si>
   <si>
     <t xml:space="preserve">4.4000000000000004</t>
@@ -32,21 +32,27 @@
     <t xml:space="preserve">4.4.1.-  RECIBIDOS</t>
   </si>
   <si>
-    <t xml:space="preserve">117</t>
+    <t xml:space="preserve">H05_01</t>
   </si>
   <si>
     <t xml:space="preserve">4.4.2.-DILIGENCIADOS Y DEVUELTOS</t>
   </si>
   <si>
+    <t xml:space="preserve">H05_02</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.4.3.- FORMULADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">55</t>
+    <t xml:space="preserve">H05_03</t>
   </si>
   <si>
     <t xml:space="preserve">4.4.4.-DILIGENCIADOS RECIBIDOS</t>
   </si>
   <si>
+    <t xml:space="preserve">H05_04</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.5</t>
   </si>
   <si>
@@ -62,21 +68,39 @@
     <t xml:space="preserve">NOTIFICACIONES (T.S.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">H05_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_06</t>
   </si>
   <si>
     <t xml:space="preserve">EJECUCIONES DE SENTENCIAS (T.S.A.)</t>
   </si>
   <si>
+    <t xml:space="preserve">H05_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_08</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTRAS DILIGENCIAS  (T.S.A.)</t>
   </si>
   <si>
+    <t xml:space="preserve">H05_09</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTRAS DILIGENCIAS (T.S.A.)</t>
   </si>
   <si>
+    <t xml:space="preserve">H05_10</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOTAL :</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Columna de Verificación de Datos</t>
   </si>
   <si>
@@ -98,6 +122,9 @@
     <t xml:space="preserve">2022</t>
   </si>
   <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024</t>
   </si>
   <si>
@@ -110,16 +137,19 @@
     <t xml:space="preserve">SENTENCIAS DEFINITIVAS;</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">H05_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_15</t>
   </si>
   <si>
     <t xml:space="preserve">OK</t>
@@ -134,58 +164,193 @@
     <t xml:space="preserve">SENTENCIAS EN CUMPLIMIENTO DE EJECUTORIA</t>
   </si>
   <si>
+    <t xml:space="preserve">H05_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_20</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.2999999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">SENTENCIAS EN CUMP. DE REC. REV. (T.S.A.)</t>
   </si>
   <si>
+    <t xml:space="preserve">H05_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_25</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.4000000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">SENTENCIAS INTERLOCUTORIAS;</t>
   </si>
   <si>
+    <t xml:space="preserve">H05_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_30</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.5</t>
   </si>
   <si>
     <t xml:space="preserve">LAUDOS HOMOLOGADOS;</t>
   </si>
   <si>
+    <t xml:space="preserve">H05_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_35</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.5999999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">CONVENIOS CON CARÁCTER DE SENTENCIA.</t>
   </si>
   <si>
+    <t xml:space="preserve">H05_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_40</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.7000000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">DESISTIMIENTOS</t>
   </si>
   <si>
+    <t xml:space="preserve">H05_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_45</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.7999999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">CADUCIDADES</t>
   </si>
   <si>
+    <t xml:space="preserve">H05_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_50</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.9000000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">OTRAS(Especifique)</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">H05_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_55</t>
   </si>
   <si>
     <t xml:space="preserve">RESOLUCIONES DE JURISDICCION VOLUNTARIA</t>
   </si>
   <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
+    <t xml:space="preserve">H05_56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H05_60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERIFICAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_096</t>
   </si>
   <si>
     <t xml:space="preserve">(FRACC. X, ART. 18 L.O.T.A.);</t>
@@ -194,16 +359,10 @@
     <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
     <t xml:space="preserve">Este Total debe de coincidir con el Gran Total de la Hoja 10</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">H01_03</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 5</t>
@@ -669,8 +828,8 @@
       </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="1" t="n">
-        <v>113</v>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -699,20 +858,20 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8" s="1" t="n">
-        <v>45</v>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -774,10 +933,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -813,13 +972,13 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -851,20 +1010,20 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16"/>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" s="1" t="n">
-        <v>12</v>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -893,17 +1052,21 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -931,17 +1094,21 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -970,19 +1137,19 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="n">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -1005,7 +1172,7 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
@@ -1063,7 +1230,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -1133,7 +1300,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -1158,7 +1325,7 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -1176,22 +1343,22 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2023</v>
+        <v>35</v>
+      </c>
+      <c r="I33" t="s">
+        <v>36</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -1217,41 +1384,41 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L35" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M35" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N35"/>
       <c r="O35" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
@@ -1273,37 +1440,37 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="K37" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L37" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M37" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -1327,37 +1494,37 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="K39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L39" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -1381,37 +1548,37 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K41" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L41" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M41" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -1435,37 +1602,37 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>32</v>
+        <v>73</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="K43" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L43" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M43" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -1489,37 +1656,37 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="K45" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L45" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M45" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -1543,37 +1710,37 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47" s="1" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="K47" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L47" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M47" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -1597,37 +1764,37 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49" s="1" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>32</v>
+        <v>94</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="K49" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L49" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M49" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
@@ -1651,37 +1818,39 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51"/>
+        <v>98</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J51" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="K51" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L51" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M51" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N51"/>
       <c r="O51"/>
@@ -1705,37 +1874,37 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53" s="1" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="s">
-        <v>56</v>
+        <v>108</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="K53" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L53" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="M53" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="N53"/>
       <c r="O53"/>
@@ -1743,7 +1912,7 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -1781,38 +1950,38 @@
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H56" t="s">
-        <v>34</v>
-      </c>
-      <c r="I56" t="n">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="K56" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="L56" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M56" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="N56" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="O56" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57">
@@ -1888,7 +2057,7 @@
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="E61" t="n">
         <v>2024</v>
@@ -1899,7 +2068,7 @@
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="L61"/>
       <c r="M61"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja5.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_01</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">4.4000000000000004</t>
@@ -32,27 +32,21 @@
     <t xml:space="preserve">4.4.1.-  RECIBIDOS</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_01</t>
+    <t xml:space="preserve">117</t>
   </si>
   <si>
     <t xml:space="preserve">4.4.2.-DILIGENCIADOS Y DEVUELTOS</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_02</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.4.3.- FORMULADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_03</t>
+    <t xml:space="preserve">55</t>
   </si>
   <si>
     <t xml:space="preserve">4.4.4.-DILIGENCIADOS RECIBIDOS</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_04</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.5</t>
   </si>
   <si>
@@ -68,88 +62,64 @@
     <t xml:space="preserve">NOTIFICACIONES (T.S.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_06</t>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">EJECUCIONES DE SENTENCIAS (T.S.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_08</t>
-  </si>
-  <si>
     <t xml:space="preserve">OTRAS DILIGENCIAS  (T.S.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_09</t>
-  </si>
-  <si>
     <t xml:space="preserve">OTRAS DILIGENCIAS (T.S.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_10</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOTAL :</t>
   </si>
   <si>
+    <t xml:space="preserve">Columna de Verificación de Datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J   U   I   C   I   O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.- RESOLUCIONES (DICTADAS Y FIRMADAS EN EL MES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De asuntos recibidos en :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 y Años anteriores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T O T A L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0999999999999996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENTENCIAS DEFINITIVAS;</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">Columna de Verificación de Datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J   U   I   C   I   O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V.- RESOLUCIONES (DICTADAS Y FIRMADAS EN EL MES)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De asuntos recibidos en :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020 y Años anteriores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T O T A L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0999999999999996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENTENCIAS DEFINITIVAS;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_15</t>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">OK</t>
@@ -164,193 +134,58 @@
     <t xml:space="preserve">SENTENCIAS EN CUMPLIMIENTO DE EJECUTORIA</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_20</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.2999999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">SENTENCIAS EN CUMP. DE REC. REV. (T.S.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_25</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.4000000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">SENTENCIAS INTERLOCUTORIAS;</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_30</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.5</t>
   </si>
   <si>
     <t xml:space="preserve">LAUDOS HOMOLOGADOS;</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_35</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.5999999999999996</t>
   </si>
   <si>
     <t xml:space="preserve">CONVENIOS CON CARÁCTER DE SENTENCIA.</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_40</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.7000000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">DESISTIMIENTOS</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_45</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.7999999999999998</t>
   </si>
   <si>
     <t xml:space="preserve">CADUCIDADES</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_50</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.9000000000000004</t>
   </si>
   <si>
     <t xml:space="preserve">OTRAS(Especifique)</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_55</t>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">RESOLUCIONES DE JURISDICCION VOLUNTARIA</t>
   </si>
   <si>
-    <t xml:space="preserve">H05_56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05_60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERIFICAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_096</t>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
   </si>
   <si>
     <t xml:space="preserve">(FRACC. X, ART. 18 L.O.T.A.);</t>
@@ -359,10 +194,16 @@
     <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
     <t xml:space="preserve">Este Total debe de coincidir con el Gran Total de la Hoja 10</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_03</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 5</t>
@@ -828,8 +669,8 @@
       </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
+      <c r="I6" s="1" t="n">
+        <v>113</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -858,20 +699,20 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
+      <c r="I8" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -933,10 +774,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -972,13 +813,13 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -1010,20 +851,20 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16"/>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" s="1" t="s">
-        <v>19</v>
+      <c r="I16" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -1052,21 +893,17 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18"/>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="I18" s="1"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -1094,21 +931,17 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C20"/>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="I20" s="1"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -1137,19 +970,19 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -1172,7 +1005,7 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
@@ -1230,7 +1063,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -1300,7 +1133,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -1325,7 +1158,7 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -1343,22 +1176,22 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2023</v>
       </c>
       <c r="J33" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K33" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -1384,41 +1217,41 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L35" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M35" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N35"/>
       <c r="O35" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
@@ -1440,37 +1273,37 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="K37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L37" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -1494,37 +1327,37 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="K39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L39" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -1548,37 +1381,37 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K41" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L41" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M41" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -1602,37 +1435,37 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="K43" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L43" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M43" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -1656,37 +1489,37 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="K45" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L45" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M45" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -1710,37 +1543,37 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47" s="1" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>88</v>
+        <v>32</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="K47" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L47" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M47" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -1764,37 +1597,37 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>95</v>
+        <v>32</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="K49" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L49" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M49" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
@@ -1818,39 +1651,37 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51" s="1" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>103</v>
+        <v>32</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L51" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M51" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N51"/>
       <c r="O51"/>
@@ -1874,37 +1705,37 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53" s="1" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>109</v>
+        <v>32</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="K53" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="L53" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="M53" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="N53"/>
       <c r="O53"/>
@@ -1912,7 +1743,7 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -1950,38 +1781,38 @@
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H56" t="s">
-        <v>28</v>
-      </c>
-      <c r="I56" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10</v>
       </c>
       <c r="J56" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="K56" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="L56" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M56" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="N56" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="O56" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57">
@@ -2057,7 +1888,7 @@
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="E61" t="n">
         <v>2024</v>
@@ -2068,7 +1899,7 @@
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="L61"/>
       <c r="M61"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja5.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja5.xlsx
@@ -203,7 +203,7 @@
     <t xml:space="preserve">Este Total debe de coincidir con el Gran Total de la Hoja 10</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">Diciembre</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 5</t>
